--- a/biology/Médecine/Cycle_visuel/Cycle_visuel.xlsx
+++ b/biology/Médecine/Cycle_visuel/Cycle_visuel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cycle de la vision, ou cycle visuel, est régi par la photoisomérisation du rétinal. Lorsque le rétinal 11-cis absorbe un photon, il passe de l'état 11-cis à l'état tout-trans. Cette isomérisation est à l'origine de l'influx nerveux par phototransduction. Le rétinal 11-cis est ensuite régénéré par voie enzymatique.
 Dans le détail, le cycle visuel dans une cellule bâtonnet de mammifère comprend sept étapes. Les étapes 1, 2 et 7 se déroulent dans les cellules de l'épithélíum pigmentaire de la rétine (EPR). Les étapes 3 à 6 ont lieu dans les segments extérieurs des cellules bâtonnets.
@@ -514,22 +526,237 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isomérisation du rétinol et hydrolyse de la liaison ester
-Tout-trans-rétinyl ester H2O → 11-cis-rétinol + acide gras par une RPE65 isomérohydrolase[1].
-Oxydation du rétinol
-11-cis-rétinol + NAD+ → 11-cis-rétinal + NADH + H+ par une 11-cis-rétinol déshydrogénase.
+          <t>Isomérisation du rétinol et hydrolyse de la liaison ester</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tout-trans-rétinyl ester H2O → 11-cis-rétinol + acide gras par une RPE65 isomérohydrolase.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cycle_visuel</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cycle_visuel</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Principe</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Oxydation du rétinol</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11-cis-rétinol + NAD+ → 11-cis-rétinal + NADH + H+ par une 11-cis-rétinol déshydrogénase.
 Passage dans un bâtonnet (segment externe).[pas clair]
-Fixation du 11-cis rétinal sur l'aporhodopsine par formation d'une imine
-11-cis-retinal + aporhodopsine → rhodopsine + H2O
-Capture du signal photonique, le 11-cis rétinène est isomérisé en tout-trans
-Rhodopsine + hν → métarhodopsine II 
-Hydrolyse spontanée de l'imine, libération du rétinal
-Métarhodopsine H2O → aporhodopsine + tout-trans-rétinal 
-Réduction du rétinal
-Tout-trans-rétinal + NADPH + H+ → tout-trans-rétinol +NADP+ par une tout-trans-rétinol déshydrogénase.
-Estérification du rétinol
-Tout-trans-rétinol + acide gras → tout-trans-rétinyl ester + H2O par une lécithine rétinol acyltransférase (LRAT)[2].
-Dans ce domaine, le biochimiste George Wald a reçu une partie du prix Nobel de physiologie ou médecine en 1967 pour son travail sur les pigments de la rétine[3].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cycle_visuel</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cycle_visuel</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Principe</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fixation du 11-cis rétinal sur l'aporhodopsine par formation d'une imine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11-cis-retinal + aporhodopsine → rhodopsine + H2O
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cycle_visuel</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cycle_visuel</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Principe</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Capture du signal photonique, le 11-cis rétinène est isomérisé en tout-trans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rhodopsine + hν → métarhodopsine II 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cycle_visuel</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cycle_visuel</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Principe</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Hydrolyse spontanée de l'imine, libération du rétinal</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Métarhodopsine H2O → aporhodopsine + tout-trans-rétinal 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cycle_visuel</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cycle_visuel</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Principe</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Réduction du rétinal</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tout-trans-rétinal + NADPH + H+ → tout-trans-rétinol +NADP+ par une tout-trans-rétinol déshydrogénase.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cycle_visuel</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cycle_visuel</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Principe</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Estérification du rétinol</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tout-trans-rétinol + acide gras → tout-trans-rétinyl ester + H2O par une lécithine rétinol acyltransférase (LRAT).
+Dans ce domaine, le biochimiste George Wald a reçu une partie du prix Nobel de physiologie ou médecine en 1967 pour son travail sur les pigments de la rétine.
 </t>
         </is>
       </c>
